--- a/StructureDefinition-meaning-order.xlsx
+++ b/StructureDefinition-meaning-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T08:24:07+00:00</t>
+    <t>2022-07-14T09:12:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-meaning-order.xlsx
+++ b/StructureDefinition-meaning-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T09:12:07+00:00</t>
+    <t>2022-07-14T09:51:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-meaning-order.xlsx
+++ b/StructureDefinition-meaning-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T09:51:10+00:00</t>
+    <t>2022-07-14T10:13:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-meaning-order.xlsx
+++ b/StructureDefinition-meaning-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T10:13:19+00:00</t>
+    <t>2022-07-14T10:27:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-meaning-order.xlsx
+++ b/StructureDefinition-meaning-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T10:27:58+00:00</t>
+    <t>2022-07-14T10:47:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-meaning-order.xlsx
+++ b/StructureDefinition-meaning-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T10:47:14+00:00</t>
+    <t>2022-07-14T11:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-meaning-order.xlsx
+++ b/StructureDefinition-meaning-order.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.com/fhir/example/StructureDefinition/meaning-order</t>
+    <t>http://spms.min-saude/pe/top/extensions/med-request-modality</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T11:00:22+00:00</t>
+    <t>2022-07-14T11:39:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-meaning-order.xlsx
+++ b/StructureDefinition-meaning-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T11:39:56+00:00</t>
+    <t>2022-07-14T12:13:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-meaning-order.xlsx
+++ b/StructureDefinition-meaning-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T12:13:58+00:00</t>
+    <t>2022-07-14T12:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-meaning-order.xlsx
+++ b/StructureDefinition-meaning-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T12:15:20+00:00</t>
+    <t>2022-07-14T12:28:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-meaning-order.xlsx
+++ b/StructureDefinition-meaning-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T12:28:55+00:00</t>
+    <t>2022-09-22T18:17:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-meaning-order.xlsx
+++ b/StructureDefinition-meaning-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T19:26:47+00:00</t>
+    <t>2023-02-16T20:28:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-meaning-order.xlsx
+++ b/StructureDefinition-meaning-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T20:28:10+00:00</t>
+    <t>2023-02-16T21:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-meaning-order.xlsx
+++ b/StructureDefinition-meaning-order.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T21:17:23+00:00</t>
+    <t>2023-02-16T21:36:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
